--- a/biology/Botanique/Adolfo_Targioni_Tozzetti/Adolfo_Targioni_Tozzetti.xlsx
+++ b/biology/Botanique/Adolfo_Targioni_Tozzetti/Adolfo_Targioni_Tozzetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolfo Targioni Tozzetti est un entomologiste italien, né le 13 février 1823 à Florence et mort le 19 septembre 1902 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolfo Targioni Tozzetti enseigne la botanique puis la zoologie et l’anatomie comparée des invertébrés à l’institut d’études supérieures de Florence. Il dirige dès sa fondation la station d’entomologie agraire de cette même ville, la première structure de ce type en Europe.
 Il contribue à la création de la Société entomologique d’Italie dont il est le premier président (de 1869 à 1895). Il fait paraître plus de 200 publications et s’intéresse notamment au phylloxera et aux Coccidae.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1867  Studii sulle Cocciniglie. Memorie della Società Italiana di Scienze Naturali. Milano 3: 1-87.
 1868 (separate), 1869. Introduzione alla seconda memoria per gli studi sulle cocciniglie, e catalogo dei generi e delle specie della famiglia dei coccidi. Atti della Società Italiana di Scienze Naturali 11: 721-738.
@@ -583,7 +599,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cesare Conci et Roberto Poggi (1996), Iconography of Italian Entomologists, with essential biographical data. Memorie della Società entomologica Italiana, 75 : 159-382.  (ISSN 0037-8747)
 Ad.Targ.Tozz. est l’abréviation botanique standard de Adolfo Targioni Tozzetti.
